--- a/data/Fishing_RawData.xlsx
+++ b/data/Fishing_RawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Dropbox/ParaSpace/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Library/CloudStorage/Dropbox/ParaSpace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE58860-B9C6-954B-A98C-2C7255702430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A75384F-467D-014E-9C2D-8CADADE79AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="16080" xr2:uid="{0B48F740-C0DB-2642-A975-95BB6AB906F9}"/>
+    <workbookView xWindow="400" yWindow="860" windowWidth="28400" windowHeight="16080" xr2:uid="{0B48F740-C0DB-2642-A975-95BB6AB906F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp1 - Fishing" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10215" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10213" uniqueCount="927">
   <si>
     <t>Centrarchidae</t>
   </si>
@@ -2814,6 +2814,9 @@
   </si>
   <si>
     <t>74°04.462'</t>
+  </si>
+  <si>
+    <t>BEAV_N_09</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3065,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3100,7 +3103,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3206,7 +3209,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3359,8 +3362,8 @@
   <dimension ref="A1:M1249"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A888" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F891" sqref="F891"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8985,13 +8988,13 @@
         <v>20</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>178</v>
+        <v>926</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>12</v>
@@ -9002,8 +9005,8 @@
       <c r="L134" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M134" s="1" t="s">
-        <v>12</v>
+      <c r="M134" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -9705,7 +9708,7 @@
         <v>174</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>12</v>
@@ -9716,8 +9719,8 @@
       <c r="L151" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M151" s="1" t="s">
-        <v>12</v>
+      <c r="M151" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -38475,7 +38478,7 @@
         <v>117</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J836" s="1" t="s">
         <v>12</v>
@@ -51411,7 +51414,7 @@
         <v>293</v>
       </c>
       <c r="I1144" s="1" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="J1144" s="1" t="s">
         <v>12</v>
@@ -51495,7 +51498,7 @@
         <v>291</v>
       </c>
       <c r="I1146" s="1" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="J1146" s="1" t="s">
         <v>12</v>
@@ -53763,7 +53766,7 @@
         <v>233</v>
       </c>
       <c r="I1200" s="1" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="J1200" s="1" t="s">
         <v>12</v>
@@ -53889,7 +53892,7 @@
         <v>231</v>
       </c>
       <c r="I1203" s="1" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="J1203" s="1" t="s">
         <v>12</v>
